--- a/excel/sales.xlsx
+++ b/excel/sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2caeee55571d19ad/Desktop/Developia/developia-ferdi-01-main/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_3A9571B6D35056C37C2A15D04B5ED87656CD8F97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FED41416-85F3-4E82-8BBF-5713FC383C47}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_3A9571B6D35056C37C2A15D04B5ED87656CD8F97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5D34ACC-BF9B-4A15-B3A6-D394001B103F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,13 +467,13 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
